--- a/TGSProject/Assets/Resources/MessageData/Excels/Stage1/Stage01_Start1.xlsx
+++ b/TGSProject/Assets/Resources/MessageData/Excels/Stage1/Stage01_Start1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TGSProject\TGSProject\Assets\Resources\MessageData\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TGSProject\TGSProject\Assets\Resources\MessageData\Excels\Stage1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEBEC57-8347-42BE-A1CA-6526BCA92C0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A74A70-76BE-48C0-8867-8A7DBCD8291B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,13 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="50">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -169,10 +165,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>この森は、マッシュルーム林と呼ばれていて、</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GREEN</t>
   </si>
   <si>
@@ -198,14 +190,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>俺は進む方向を確認して君に伝えるから、</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L3と◀▶で指示通りに進め。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>わかりました。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -214,33 +198,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ここには昼が存在しない、いわば終夜だ。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>夜がずっと続くということだ。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>しゅうや…？よくわかりません。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Right</t>
   </si>
   <si>
-    <t>もともと人間が入っていい場所じゃない。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>だから光を必要としない稀少な植物がたくさん生息している。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>光を必要としない代わりに、やつらは通りかかる獲物を捕食して養分とする。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>君の代わりに俺が目になるから、君は俺の足になり、車椅子を押してくれ。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -284,31 +252,49 @@
     <t>意気込みすぎて転ぶなよ？俺に迷惑がかかる。</t>
   </si>
   <si>
-    <t>この宮殿は恐らく蜘蛛の巣窟になっている。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>現れたら、△で俺が小石を投げて駆逐する。</t>
-  </si>
-  <si>
-    <t>持てる数には限界があるが、石を見つけたら積極的に拾っていくつもりだ。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いっぺんに話しても覚えられないだろう、</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>また何かあったら話す。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>今はとりあえず進んでくれ。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>は、はいっ！</t>
-    <phoneticPr fontId="1"/>
+    <t>この森は、マッシュルーム林と呼ばれていて、もともと人間が入っていい場所じゃない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>俺は進む方向を確認して君に伝えるから、Lスティックで指示通りに進め。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここには昼が存在しない
+いわば終夜だ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゅうや…？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光を必要としない代わりにやつらは通りかかる獲物を捕食して養分とする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この宮殿は恐らくクモの巣窟になっている。現れたら、△で俺が小石を投げて駆逐する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持てる数には限界があるが
+石を見つけたら積極的に拾っていくつもりだ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっぺんに話しても覚えられないだろう、また何かあったら話す。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はいっ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -457,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -481,9 +467,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -500,15 +483,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -516,19 +493,17 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -542,15 +517,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -558,9 +527,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -701,16 +668,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6FAD6C82-C3C9-4FB0-9844-B648A96AB599}" name="テーブル2" displayName="テーブル2" ref="A1:G30" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:G30" xr:uid="{A6B531AD-F337-4058-9114-33C46863F138}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6FAD6C82-C3C9-4FB0-9844-B648A96AB599}" name="テーブル2" displayName="テーブル2" ref="A1:G26" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G26" xr:uid="{A6B531AD-F337-4058-9114-33C46863F138}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{BB0E5D9F-2D08-4C72-8455-42174E525949}" name="id" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{A47C076A-D9B0-4632-9894-3897E0489CD3}" name="name" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A47C076A-D9B0-4632-9894-3897E0489CD3}" name="ルイス" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{8420612B-A8B6-4F66-91E6-3D22104328BA}" name="message" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{5D941501-A704-4925-A965-FE96EB114024}" name="balloonPos" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{5D941501-A704-4925-A965-FE96EB114024}" name="balloonPos" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{9AF2B67E-A958-4289-81C4-7572D8AA49C5}" name="balloonSize" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{866C0031-09FA-4E9A-810B-C3ABA12D77D4}" name="balloonType" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{F1963317-EF13-4424-9BAD-7431AB918421}" name="balloonColor" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{866C0031-09FA-4E9A-810B-C3ABA12D77D4}" name="balloonType" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{F1963317-EF13-4424-9BAD-7431AB918421}" name="balloonColor" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -979,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -999,69 +966,69 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" ht="36">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F2" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="36">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F3" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="36">
@@ -1069,22 +1036,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1092,22 +1059,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1115,45 +1082,45 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="36">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1161,22 +1128,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1184,22 +1151,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1207,45 +1174,45 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F10" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="36">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1253,45 +1220,45 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1299,22 +1266,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1322,22 +1289,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1345,22 +1312,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>18</v>
+      <c r="G16" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1368,22 +1335,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F17" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>18</v>
+      <c r="G17" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1391,13 +1358,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>41</v>
+        <v>21</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>20</v>
@@ -1406,30 +1373,30 @@
         <v>1</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.8">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>42</v>
+        <v>22</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F19" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1437,114 +1404,114 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="28.8">
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>44</v>
+        <v>21</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F21" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G21" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.8">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="F22" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.8">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="31.8">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F24" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1552,158 +1519,66 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F25" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="31.8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="F26" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E31" xr:uid="{8FDBC182-949B-4BCE-AF08-32C16AA220CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E27" xr:uid="{8FDBC182-949B-4BCE-AF08-32C16AA220CF}">
       <formula1>"Left,Right"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F31 E2:E30" xr:uid="{A26CC118-CF99-454A-9DC9-CE5C05F09D3D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27 E2:E26" xr:uid="{A26CC118-CF99-454A-9DC9-CE5C05F09D3D}">
       <formula1>"S,M,L"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F19 F21 F23 F25 F27 F29" xr:uid="{AF10DB70-DBBD-4003-973B-CA0FA2181F63}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F19 F21 F23 F25" xr:uid="{AF10DB70-DBBD-4003-973B-CA0FA2181F63}">
       <formula1>"FALSE,TRUE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30" xr:uid="{B814DFD8-34B2-4E91-A5A1-4475D0EBD98F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D26" xr:uid="{FF704D09-EAB8-42F2-8C35-FFE2F6A5DBC3}">
       <formula1>"Left, Right"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G30" xr:uid="{C3F2162C-4D28-4657-9A5B-7BE73D5DF5F8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G26" xr:uid="{53344814-6670-42D6-95E2-2EC75C204A03}">
       <formula1>"RED, GREEN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F18 F20 F22 F24 F26 F28 F30" xr:uid="{2EB80252-8356-4FDA-B9DD-2525D2876A97}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F18 F20 F22 F24 F26" xr:uid="{2EB80252-8356-4FDA-B9DD-2525D2876A97}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1727,43 +1602,43 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1778,12 +1653,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100BAE7EB4212F5614DAFCEB6FEF87A9307" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="12250d17ef9aef68ca08ed35e135200f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="06e34fca-c037-4f19-8349-14b84dea7b7d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba4eafe8c0cf322686b87aede248738b" ns2:_="">
     <xsd:import namespace="06e34fca-c037-4f19-8349-14b84dea7b7d"/>
@@ -1947,6 +1816,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1957,15 +1832,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03F76F5A-6FE6-43ED-8BDE-2E3768D5ABA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B0C6F35-3ACF-483F-9DCD-D079A65F37AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1983,6 +1849,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03F76F5A-6FE6-43ED-8BDE-2E3768D5ABA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0042F798-3373-44D4-9B9C-8A95AD5CBA2D}">
   <ds:schemaRefs>
